--- a/biology/Botanique/Himantoglossum_metlesicsianum/Himantoglossum_metlesicsianum.xlsx
+++ b/biology/Botanique/Himantoglossum_metlesicsianum/Himantoglossum_metlesicsianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Himantoglossum metlesicsianum est une espèce d'Orchidaceae endémique de l'île de Tenerife, très proche de Himantoglossum robertianum, l'orchis géant. Elle a été nommée en hommage à Hans Metlesics, un botaniste autrichien. Avant 1999, elle était classée dans le genre Barlia en tant que Barlia metlesicsiana W.P.Teschner (1982).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce ressemble beaucoup à l'orchis géant mais ne dépasse guère les 60 cm de hauteur, contre plus de 70 cm pour l'orchis géant.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinèdes et terrains abandonnés de Ténérife.
 Principalement dans le sud-est de Tenerife entre 800 et 1 300 m, dans les communes Santiago del Teide et de Guía de Isora.
